--- a/pred_ohlcv/54_21/2020-01-16 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-32809.93519103</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-56456.27056967</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-36891.18256967003</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>58063.68563032998</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>55974.24722661997</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>56074.71402674997</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>70928.38862674996</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>71313.00442674996</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>70313.00442674996</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70289.28412674996</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PIVX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-31461.36579103</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-31101.39886967</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-55572.53866967</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-57735.03666967</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-57581.85066967</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-58131.82066967</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-55688.10646967</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-61179.01906967</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-61068.69256967</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-59873.72856967</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-69930.46896966999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-68764.62226967</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-68838.62226967</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-68836.62226967</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-68671.77466967001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-68591.77466967001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-68891.32366967</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-69372.28766967001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-73322.49006967001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-71010.49006967001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-71027.47196967</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-69458.06126967001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-65803.27156967002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-48596.52696967001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-48794.52696967001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-48794.52696967001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-48808.55006967001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-48940.55006967001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-49340.55006967001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-50754.28466967001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-46426.13166967002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-46569.51956967002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-47642.67956967002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-47642.67956967002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-36891.18256967003</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-22758.70716967002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-22658.70716967002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-23058.70716967002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20869.93326967002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>58063.68563032998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>54386.62403032998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>54775.62403032998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>54389.21943032998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>54422.90832661997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>55981.52912661997</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>55974.24722661997</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>56107.71402674997</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>56074.71402674997</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>78430.27012674997</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>70928.38862674996</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>70896.38862674996</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>71313.00442674996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>70313.00442674996</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70289.28412674996</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
